--- a/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.963873632934273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.549964880028455</v>
+        <v>2.549964880028466</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1412262509287253</v>
@@ -649,7 +649,7 @@
         <v>0.1418014400397932</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05055816569019304</v>
+        <v>0.05055816569019327</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.39719626950659</v>
+        <v>-1.999539806381829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.222787892415457</v>
+        <v>5.339965187077667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.194112234498095</v>
+        <v>-0.8809832214349744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.872884883715161</v>
+        <v>-2.695304701726971</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.09631785814187117</v>
+        <v>-0.07943178050626869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2093330051036906</v>
+        <v>0.214961431505468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03230950754398346</v>
+        <v>-0.02080449301643563</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05440586981592586</v>
+        <v>-0.04984285248558349</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.752914040087749</v>
+        <v>8.517590855643659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.59710967436343</v>
+        <v>15.5788297623332</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.35750911284234</v>
+        <v>10.84404650277823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.986181630934841</v>
+        <v>7.355430322711763</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4240454155243375</v>
+        <v>0.4169315970879632</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8048770399623336</v>
+        <v>0.8118477512633128</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3330869730458053</v>
+        <v>0.3411684679385011</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1682970548154437</v>
+        <v>0.1572544457209406</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.283393986401072</v>
+        <v>-2.041841540626743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.088497930580967</v>
+        <v>-0.9931606857877769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.230758550082434</v>
+        <v>-4.380535027727653</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.045698112173867</v>
+        <v>-2.127869353936708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0698781338977489</v>
+        <v>-0.05928400934075633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03388415830807239</v>
+        <v>-0.03129597250622484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1003531357443798</v>
+        <v>-0.1039113318079934</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03364474075075859</v>
+        <v>-0.03417656740835692</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.243702252917609</v>
+        <v>7.456399805247685</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.086782747855436</v>
+        <v>8.392897315644515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.429866273388079</v>
+        <v>5.313086226137051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.590524306482186</v>
+        <v>6.941683651258061</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2647365004850046</v>
+        <v>0.2766500035269848</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2971574423077</v>
+        <v>0.3085078120267388</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1418676920660445</v>
+        <v>0.1404094840812701</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1167033488211719</v>
+        <v>0.1225973527975114</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.444126714420864</v>
+        <v>-6.544994842252592</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.441749448931773</v>
+        <v>-4.967808197462642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.837634999408986</v>
+        <v>-1.908369063324855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.726471462815495</v>
+        <v>-5.398688282650425</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2020429991020264</v>
+        <v>-0.2090187143645213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1538412921382643</v>
+        <v>-0.1467159722942507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.044595793482417</v>
+        <v>-0.04629009476285854</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08349418311319935</v>
+        <v>-0.09218157056404191</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.941328353933516</v>
+        <v>4.411975535937226</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.48908028703935</v>
+        <v>5.670516000436489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.701828992592294</v>
+        <v>10.28541879336488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.647822652029363</v>
+        <v>5.645687012806055</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1922556050952404</v>
+        <v>0.1739721932777044</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1838465615369476</v>
+        <v>0.1950034704864627</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2762731406737481</v>
+        <v>0.2843797520279779</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1338973498242019</v>
+        <v>0.1109619789304436</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.880610891125589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.200558120026996</v>
+        <v>2.200558120027019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0297869866493195</v>
@@ -949,7 +949,7 @@
         <v>0.0407724002955521</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03579990839701576</v>
+        <v>0.03579990839701613</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.235969792400823</v>
+        <v>-3.573678874972305</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3540991156288449</v>
+        <v>0.01337635107575131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.091387513099094</v>
+        <v>-3.255367567848108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.077531909646785</v>
+        <v>-1.874581086361455</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1136320672480681</v>
+        <v>-0.09600074189584611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006988068025254148</v>
+        <v>0.001425995673133195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06411292724046615</v>
+        <v>-0.06622448974599444</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0335397243703141</v>
+        <v>-0.02938308892647649</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.869829083487388</v>
+        <v>6.02849318334681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.278701256739607</v>
+        <v>9.473964615561012</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.114599112884271</v>
+        <v>7.018172888695005</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.533358780932308</v>
+        <v>6.443911855338287</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1819598697733014</v>
+        <v>0.1900300310910949</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3058140577059756</v>
+        <v>0.3142344401601709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1627777776998049</v>
+        <v>0.1600068809521801</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1107949896036171</v>
+        <v>0.1106970635335973</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.598297656122966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.069774802412327</v>
+        <v>2.069774802412339</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05279459572874643</v>
@@ -1049,7 +1049,7 @@
         <v>0.06372151631481444</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.03627230831326671</v>
+        <v>0.03627230831326691</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9208946504929075</v>
+        <v>-1.272458776027707</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.404419481039328</v>
+        <v>2.336690789878933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.06453011046602668</v>
+        <v>-0.312250377338666</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4761006043263542</v>
+        <v>-0.1384531943960761</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03018791758244679</v>
+        <v>-0.04030176384191315</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07852111428598614</v>
+        <v>0.07515081437521601</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.001623973558500025</v>
+        <v>-0.007765687040048441</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.007408062599418699</v>
+        <v>-0.002114944409027382</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.058320002838343</v>
+        <v>4.059239711779629</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.651350463415535</v>
+        <v>7.258020000209778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.334608983880989</v>
+        <v>5.403302709601756</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.271467233461544</v>
+        <v>4.754266162148933</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1413124428586719</v>
+        <v>0.1430958008480857</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2721596596967069</v>
+        <v>0.2552173964093815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1355452447925151</v>
+        <v>0.1361530571755165</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.07769684552193647</v>
+        <v>0.08576786744364458</v>
       </c>
     </row>
     <row r="19">
